--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_18_21.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_18_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>470107.631269085</v>
+        <v>467626.7114436263</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11799501.11390546</v>
+        <v>11799501.11390545</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>355.8136950763541</v>
       </c>
       <c r="C11" t="n">
-        <v>332.0574162031022</v>
+        <v>338.352745183881</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>327.7628950335564</v>
       </c>
       <c r="E11" t="n">
-        <v>355.0102234851353</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>379.9558991545849</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>384.0015790663269</v>
       </c>
       <c r="H11" t="n">
-        <v>267.6876178001939</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>14.65678318579947</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1427,7 +1427,7 @@
         <v>224.0750253717755</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>300.8321118830084</v>
       </c>
       <c r="W11" t="n">
         <v>322.3208221302865</v>
@@ -1436,7 +1436,7 @@
         <v>342.8109540913425</v>
       </c>
       <c r="Y11" t="n">
-        <v>359.3177920689271</v>
+        <v>356.6107183493423</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247631</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1528,22 +1528,22 @@
         <v>152.9118335948108</v>
       </c>
       <c r="C13" t="n">
-        <v>140.3266745115014</v>
+        <v>140.3266745115013</v>
       </c>
       <c r="D13" t="n">
-        <v>121.6953264310859</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>119.5138160594427</v>
       </c>
       <c r="F13" t="n">
-        <v>118.5009014358047</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>117.8348683271943</v>
+        <v>88.44202534652243</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>62.01200608292083</v>
       </c>
       <c r="S13" t="n">
         <v>162.8488787443154</v>
@@ -1585,16 +1585,16 @@
         <v>259.2916916184864</v>
       </c>
       <c r="V13" t="n">
-        <v>209.3049387370277</v>
+        <v>225.2174967367015</v>
       </c>
       <c r="W13" t="n">
         <v>259.6028517494645</v>
       </c>
       <c r="X13" t="n">
-        <v>198.7895088019107</v>
+        <v>198.7895088019106</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>191.6645067649683</v>
       </c>
     </row>
     <row r="14">
@@ -1610,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>327.7628950335564</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>355.0102234851353</v>
@@ -1619,13 +1619,13 @@
         <v>379.9558991545849</v>
       </c>
       <c r="G14" t="n">
-        <v>384.0015790663269</v>
+        <v>44.75640512426639</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>267.6876178001939</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>14.65678318579948</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.26761520104935</v>
       </c>
       <c r="T14" t="n">
         <v>176.9978235524937</v>
       </c>
       <c r="U14" t="n">
-        <v>222.5110844662081</v>
+        <v>224.0750253717755</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>300.8321118830084</v>
       </c>
       <c r="W14" t="n">
         <v>322.3208221302865</v>
@@ -1765,25 +1765,25 @@
         <v>152.9118335948108</v>
       </c>
       <c r="C16" t="n">
-        <v>140.3266745115014</v>
+        <v>140.3266745115013</v>
       </c>
       <c r="D16" t="n">
-        <v>121.6953264310859</v>
+        <v>121.6953264310858</v>
       </c>
       <c r="E16" t="n">
         <v>119.5138160594427</v>
       </c>
       <c r="F16" t="n">
-        <v>118.5009014358047</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>139.1056616719017</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>117.8348683271943</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>69.43227382271164</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>62.01200608292084</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>162.8488787443154</v>
       </c>
       <c r="T16" t="n">
         <v>192.6288026890427</v>
@@ -1825,13 +1825,13 @@
         <v>225.2174967367015</v>
       </c>
       <c r="W16" t="n">
-        <v>6.336730234524167</v>
+        <v>259.6028517494645</v>
       </c>
       <c r="X16" t="n">
-        <v>198.7895088019107</v>
+        <v>198.7895088019106</v>
       </c>
       <c r="Y16" t="n">
-        <v>191.6645067649683</v>
+        <v>158.4112056804043</v>
       </c>
     </row>
     <row r="17">
@@ -1844,10 +1844,10 @@
         <v>308.8385584577616</v>
       </c>
       <c r="C17" t="n">
-        <v>291.3776085652885</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>280.7877584149639</v>
+        <v>239.113248666848</v>
       </c>
       <c r="E17" t="n">
         <v>308.0350868665428</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>35.29247858245679</v>
+        <v>35.29247858245685</v>
       </c>
       <c r="T17" t="n">
-        <v>130.0226869339011</v>
+        <v>130.0226869339012</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>177.099888753183</v>
       </c>
       <c r="V17" t="n">
         <v>253.8569752644159</v>
@@ -1910,7 +1910,7 @@
         <v>295.83581747275</v>
       </c>
       <c r="Y17" t="n">
-        <v>156.3904258901141</v>
+        <v>312.3426554503346</v>
       </c>
     </row>
     <row r="18">
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2002,25 +2002,25 @@
         <v>105.9366969762183</v>
       </c>
       <c r="C19" t="n">
-        <v>93.35153789290879</v>
+        <v>93.35153789290884</v>
       </c>
       <c r="D19" t="n">
-        <v>74.72018981249332</v>
+        <v>74.72018981249336</v>
       </c>
       <c r="E19" t="n">
-        <v>134.9383736358141</v>
+        <v>72.53867944085017</v>
       </c>
       <c r="F19" t="n">
-        <v>71.52576481721221</v>
+        <v>71.52576481721225</v>
       </c>
       <c r="G19" t="n">
-        <v>92.13052505330919</v>
+        <v>92.13052505330923</v>
       </c>
       <c r="H19" t="n">
-        <v>70.85973170860174</v>
+        <v>70.85973170860179</v>
       </c>
       <c r="I19" t="n">
-        <v>22.45713720411906</v>
+        <v>22.45713720411911</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>15.03686946432829</v>
+        <v>15.03686946432835</v>
       </c>
       <c r="S19" t="n">
         <v>115.8737421257229</v>
       </c>
       <c r="T19" t="n">
-        <v>145.6536660704502</v>
+        <v>208.0533602654128</v>
       </c>
       <c r="U19" t="n">
         <v>212.3165549998938</v>
@@ -2087,7 +2087,7 @@
         <v>280.7877584149639</v>
       </c>
       <c r="E20" t="n">
-        <v>308.0350868665428</v>
+        <v>307.9637310891312</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2096,7 +2096,7 @@
         <v>337.0264424477344</v>
       </c>
       <c r="H20" t="n">
-        <v>220.7124811816014</v>
+        <v>220.7124811816015</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>35.29247858245679</v>
+        <v>35.29247858245689</v>
       </c>
       <c r="T20" t="n">
-        <v>130.0226869339011</v>
+        <v>130.0226869339012</v>
       </c>
       <c r="U20" t="n">
-        <v>177.0998887531829</v>
+        <v>177.099888753183</v>
       </c>
       <c r="V20" t="n">
         <v>253.8569752644159</v>
@@ -2144,10 +2144,10 @@
         <v>275.345685511694</v>
       </c>
       <c r="X20" t="n">
-        <v>295.7644616953408</v>
+        <v>295.83581747275</v>
       </c>
       <c r="Y20" t="n">
-        <v>312.3426554503345</v>
+        <v>312.3426554503346</v>
       </c>
     </row>
     <row r="21">
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2239,25 +2239,25 @@
         <v>105.9366969762183</v>
       </c>
       <c r="C22" t="n">
-        <v>155.7512320878726</v>
+        <v>93.35153789290884</v>
       </c>
       <c r="D22" t="n">
-        <v>74.72018981249332</v>
+        <v>74.72018981249336</v>
       </c>
       <c r="E22" t="n">
-        <v>72.53867944085013</v>
+        <v>134.938373635812</v>
       </c>
       <c r="F22" t="n">
-        <v>71.52576481721221</v>
+        <v>71.52576481721225</v>
       </c>
       <c r="G22" t="n">
-        <v>92.13052505330919</v>
+        <v>92.13052505330923</v>
       </c>
       <c r="H22" t="n">
-        <v>70.85973170860174</v>
+        <v>70.8597317086018</v>
       </c>
       <c r="I22" t="n">
-        <v>22.45713720411906</v>
+        <v>22.45713720411912</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>15.03686946432829</v>
+        <v>15.03686946432838</v>
       </c>
       <c r="S22" t="n">
         <v>115.8737421257229</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>308.8385584577616</v>
+        <v>308.8385584577615</v>
       </c>
       <c r="C23" t="n">
         <v>291.3776085652885</v>
@@ -2324,7 +2324,7 @@
         <v>280.7877584149639</v>
       </c>
       <c r="E23" t="n">
-        <v>308.0350868665428</v>
+        <v>308.0350868665427</v>
       </c>
       <c r="F23" t="n">
         <v>332.9807625359924</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>35.29247858245678</v>
+        <v>35.29247858245674</v>
       </c>
       <c r="T23" t="n">
         <v>130.0226869339011</v>
@@ -2375,10 +2375,10 @@
         <v>177.0998887531829</v>
       </c>
       <c r="V23" t="n">
-        <v>253.8569752644159</v>
+        <v>253.8569752644158</v>
       </c>
       <c r="W23" t="n">
-        <v>275.345685511694</v>
+        <v>275.3456855116939</v>
       </c>
       <c r="X23" t="n">
         <v>295.83581747275</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>105.9366969762183</v>
+        <v>105.9366969762182</v>
       </c>
       <c r="C25" t="n">
-        <v>93.35153789290879</v>
+        <v>93.35153789290875</v>
       </c>
       <c r="D25" t="n">
-        <v>74.72018981249332</v>
+        <v>74.72018981249327</v>
       </c>
       <c r="E25" t="n">
-        <v>72.53867944085013</v>
+        <v>72.53867944085009</v>
       </c>
       <c r="F25" t="n">
-        <v>71.52576481721221</v>
+        <v>71.52576481721216</v>
       </c>
       <c r="G25" t="n">
-        <v>92.13052505330919</v>
+        <v>92.13052505330914</v>
       </c>
       <c r="H25" t="n">
-        <v>70.85973170860174</v>
+        <v>70.8597317086017</v>
       </c>
       <c r="I25" t="n">
-        <v>22.45713720411906</v>
+        <v>22.45713720411901</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>15.03686946432829</v>
+        <v>15.03686946432825</v>
       </c>
       <c r="S25" t="n">
-        <v>115.8737421257229</v>
+        <v>178.2734363206868</v>
       </c>
       <c r="T25" t="n">
-        <v>145.6536660704502</v>
+        <v>145.6536660704501</v>
       </c>
       <c r="U25" t="n">
         <v>212.3165549998938</v>
       </c>
       <c r="V25" t="n">
-        <v>178.242360118109</v>
+        <v>178.2423601181089</v>
       </c>
       <c r="W25" t="n">
-        <v>212.627715130872</v>
+        <v>212.6277151308719</v>
       </c>
       <c r="X25" t="n">
-        <v>214.214066378282</v>
+        <v>151.8143721833181</v>
       </c>
       <c r="Y25" t="n">
-        <v>144.6893701463758</v>
+        <v>144.6893701463757</v>
       </c>
     </row>
     <row r="26">
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T26" t="n">
         <v>156.9428335210276</v>
@@ -2719,19 +2719,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797661</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G28" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2792,22 +2792,22 @@
         <v>335.758705044888</v>
       </c>
       <c r="C29" t="n">
-        <v>318.297755152415</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D29" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E29" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F29" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G29" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H29" t="n">
-        <v>247.6326277687273</v>
+        <v>247.6326277687278</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.2126251695833</v>
+        <v>62.21262516958319</v>
       </c>
       <c r="T29" t="n">
-        <v>156.9428335210276</v>
+        <v>156.9428335210275</v>
       </c>
       <c r="U29" t="n">
         <v>204.0200353403094</v>
@@ -2852,10 +2852,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W29" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X29" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y29" t="n">
         <v>339.262802037461</v>
@@ -2889,7 +2889,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,10 +2916,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S30" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T30" t="n">
         <v>190.7165703189231</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C31" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D31" t="n">
-        <v>101.6403363996198</v>
+        <v>101.6403363996197</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797656</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433863</v>
       </c>
       <c r="G31" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572825</v>
+        <v>97.77987829572996</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124557</v>
+        <v>49.37728379124547</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.9570160514548</v>
+        <v>41.9570160514547</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T31" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U31" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V31" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W31" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X31" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704445</v>
       </c>
       <c r="Y31" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="32">
@@ -3275,7 +3275,7 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F35" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G35" t="n">
         <v>313.2370054253485</v>
@@ -3314,22 +3314,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007091</v>
+        <v>11.50304156007087</v>
       </c>
       <c r="T35" t="n">
         <v>106.2332499115152</v>
       </c>
       <c r="U35" t="n">
-        <v>153.3104517307971</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V35" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W35" t="n">
-        <v>251.5562484893081</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X35" t="n">
-        <v>272.0463804503641</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y35" t="n">
         <v>288.5532184279487</v>
@@ -3363,7 +3363,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247721</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.14725995383237</v>
+        <v>133.106765776284</v>
       </c>
       <c r="C37" t="n">
-        <v>69.56210087052291</v>
+        <v>69.56210087052287</v>
       </c>
       <c r="D37" t="n">
-        <v>50.93075279010743</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>48.74924241846425</v>
+        <v>48.74924241846421</v>
       </c>
       <c r="F37" t="n">
-        <v>47.73632779482632</v>
+        <v>47.73632779482628</v>
       </c>
       <c r="G37" t="n">
-        <v>68.3410880309233</v>
+        <v>68.34108803092326</v>
       </c>
       <c r="H37" t="n">
-        <v>47.07029468621586</v>
+        <v>47.07029468621582</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,25 +3469,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>92.08430510333697</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>121.8642290480643</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U37" t="n">
-        <v>230.7340562419016</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156007094</v>
+        <v>11.50304156007095</v>
       </c>
       <c r="T38" t="n">
         <v>106.2332499115153</v>
@@ -3600,7 +3600,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.1472599538324</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>69.56210087052295</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010746</v>
+        <v>50.93075279010748</v>
       </c>
       <c r="E40" t="n">
-        <v>48.74924241846428</v>
+        <v>48.74924241846429</v>
       </c>
       <c r="F40" t="n">
-        <v>47.73632779482635</v>
+        <v>47.73632779482637</v>
       </c>
       <c r="G40" t="n">
-        <v>68.34108803092333</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>47.07029468621589</v>
+        <v>47.0702946862159</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.20693826439323</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>92.084305103337</v>
+        <v>92.08430510333702</v>
       </c>
       <c r="T40" t="n">
         <v>121.8642290480643</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>188.527117977508</v>
       </c>
       <c r="V40" t="n">
         <v>154.4529230957231</v>
@@ -3724,10 +3724,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>170.2318734253252</v>
       </c>
       <c r="Y40" t="n">
-        <v>120.8999331239899</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>285.0491214353757</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C41" t="n">
-        <v>267.5881715429027</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D41" t="n">
-        <v>256.9983213925781</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E41" t="n">
-        <v>284.2456498441569</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F41" t="n">
-        <v>309.1913255136066</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G41" t="n">
-        <v>313.2370054253486</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H41" t="n">
-        <v>196.9230441592156</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.50304156007095</v>
+        <v>11.50304156007088</v>
       </c>
       <c r="T41" t="n">
-        <v>106.2332499115153</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U41" t="n">
-        <v>153.3104517307971</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V41" t="n">
         <v>230.06753824203</v>
@@ -3803,7 +3803,7 @@
         <v>251.5562484893081</v>
       </c>
       <c r="X41" t="n">
-        <v>272.0463804503642</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y41" t="n">
         <v>288.5532184279487</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.14725995383242</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>69.56210087052295</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>50.93075279010741</v>
       </c>
       <c r="E43" t="n">
-        <v>48.74924241846429</v>
+        <v>48.74924241846422</v>
       </c>
       <c r="F43" t="n">
-        <v>47.73632779482637</v>
+        <v>47.73632779482629</v>
       </c>
       <c r="G43" t="n">
-        <v>68.34108803092334</v>
+        <v>68.34108803092327</v>
       </c>
       <c r="H43" t="n">
-        <v>47.0702946862159</v>
+        <v>47.07029468621583</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>42.20693826439391</v>
       </c>
       <c r="S43" t="n">
-        <v>92.08430510333702</v>
+        <v>92.08430510333694</v>
       </c>
       <c r="T43" t="n">
-        <v>121.8642290480643</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W43" t="n">
-        <v>239.797783930937</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X43" t="n">
-        <v>128.0249351609323</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y43" t="n">
-        <v>120.8999331239899</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3977,7 +3977,7 @@
         <v>285.0491214353757</v>
       </c>
       <c r="C44" t="n">
-        <v>267.5881715429027</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D44" t="n">
         <v>256.9983213925781</v>
@@ -3986,7 +3986,7 @@
         <v>284.2456498441569</v>
       </c>
       <c r="F44" t="n">
-        <v>309.1913255136066</v>
+        <v>309.1913255136063</v>
       </c>
       <c r="G44" t="n">
         <v>313.2370054253486</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.50304156007095</v>
+        <v>11.50304156007093</v>
       </c>
       <c r="T44" t="n">
-        <v>106.2332499115132</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U44" t="n">
         <v>153.3104517307971</v>
@@ -4074,7 +4074,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247721</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.14725995383242</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>69.56210087052295</v>
+        <v>69.56210087052293</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>50.93075279010745</v>
       </c>
       <c r="E46" t="n">
-        <v>90.95618068285724</v>
+        <v>48.74924241846426</v>
       </c>
       <c r="F46" t="n">
-        <v>47.73632779482637</v>
+        <v>47.73632779482634</v>
       </c>
       <c r="G46" t="n">
-        <v>68.34108803092334</v>
+        <v>68.34108803092332</v>
       </c>
       <c r="H46" t="n">
-        <v>47.0702946862159</v>
+        <v>47.07029468621587</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>92.08430510333702</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>121.8642290480643</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>230.7340562419016</v>
       </c>
       <c r="V46" t="n">
         <v>154.4529230957231</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X46" t="n">
-        <v>128.0249351609323</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>120.8999331239899</v>
       </c>
     </row>
   </sheetData>
@@ -5015,40 +5015,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1802.585586845661</v>
+        <v>1142.041411855985</v>
       </c>
       <c r="C11" t="n">
-        <v>1467.174055327376</v>
+        <v>800.2709621752974</v>
       </c>
       <c r="D11" t="n">
-        <v>1467.174055327376</v>
+        <v>469.1973308282707</v>
       </c>
       <c r="E11" t="n">
-        <v>1108.577869988856</v>
+        <v>469.1973308282707</v>
       </c>
       <c r="F11" t="n">
-        <v>724.7840324589721</v>
+        <v>469.1973308282707</v>
       </c>
       <c r="G11" t="n">
-        <v>336.9036495636925</v>
+        <v>81.31694793299094</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218342</v>
+        <v>81.31694793299094</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J11" t="n">
         <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
         <v>2120.555556060171</v>
@@ -5057,16 +5057,16 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q11" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S11" t="n">
-        <v>3242.50722039599</v>
+        <v>3242.507220395989</v>
       </c>
       <c r="T11" t="n">
         <v>3063.721540039935</v>
@@ -5075,16 +5075,16 @@
         <v>2837.383130573495</v>
       </c>
       <c r="V11" t="n">
-        <v>2837.383130573495</v>
+        <v>2533.512310489648</v>
       </c>
       <c r="W11" t="n">
-        <v>2511.806542563105</v>
+        <v>2207.935722479257</v>
       </c>
       <c r="X11" t="n">
-        <v>2165.532851561749</v>
+        <v>1861.662031477901</v>
       </c>
       <c r="Y11" t="n">
-        <v>1802.585586845661</v>
+        <v>1501.449184660383</v>
       </c>
     </row>
     <row r="12">
@@ -5094,34 +5094,34 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D12" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L12" t="n">
         <v>765.151745215813</v>
@@ -5136,31 +5136,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y12" t="n">
         <v>1109.759191501176</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>690.6248303362531</v>
+        <v>418.3126375609377</v>
       </c>
       <c r="C13" t="n">
-        <v>548.8807146680699</v>
+        <v>276.5685218927542</v>
       </c>
       <c r="D13" t="n">
-        <v>425.9561425154579</v>
+        <v>276.5685218927542</v>
       </c>
       <c r="E13" t="n">
-        <v>305.2351161927886</v>
+        <v>155.8474955700848</v>
       </c>
       <c r="F13" t="n">
-        <v>185.5372359546019</v>
+        <v>155.8474955700848</v>
       </c>
       <c r="G13" t="n">
-        <v>185.5372359546019</v>
+        <v>155.8474955700848</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J13" t="n">
         <v>138.2856940003742</v>
@@ -5203,7 +5203,7 @@
         <v>368.9238220705058</v>
       </c>
       <c r="L13" t="n">
-        <v>712.1345656402572</v>
+        <v>712.1345656402571</v>
       </c>
       <c r="M13" t="n">
         <v>1082.942556361061</v>
@@ -5221,28 +5221,28 @@
         <v>2140.502109058534</v>
       </c>
       <c r="R13" t="n">
-        <v>2140.502109058534</v>
+        <v>2077.863719075786</v>
       </c>
       <c r="S13" t="n">
-        <v>1976.008292145084</v>
+        <v>1913.369902162336</v>
       </c>
       <c r="T13" t="n">
-        <v>1781.433743974334</v>
+        <v>1718.795353991586</v>
       </c>
       <c r="U13" t="n">
-        <v>1519.522944359701</v>
+        <v>1456.884554376953</v>
       </c>
       <c r="V13" t="n">
-        <v>1308.1038143223</v>
+        <v>1229.39213343079</v>
       </c>
       <c r="W13" t="n">
-        <v>1045.878711545063</v>
+        <v>967.1670306535534</v>
       </c>
       <c r="X13" t="n">
-        <v>845.0812279067691</v>
+        <v>766.36954701526</v>
       </c>
       <c r="Y13" t="n">
-        <v>845.0812279067691</v>
+        <v>572.7690351314536</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1527.856153542894</v>
+        <v>1139.306993957416</v>
       </c>
       <c r="C14" t="n">
-        <v>1527.856153542894</v>
+        <v>1139.306993957416</v>
       </c>
       <c r="D14" t="n">
-        <v>1196.782522195867</v>
+        <v>1139.306993957416</v>
       </c>
       <c r="E14" t="n">
-        <v>838.186336857347</v>
+        <v>780.7108086188953</v>
       </c>
       <c r="F14" t="n">
-        <v>454.3924993274632</v>
+        <v>396.9169710890116</v>
       </c>
       <c r="G14" t="n">
-        <v>66.51211643218339</v>
+        <v>351.7084810645001</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218339</v>
+        <v>81.31694793299096</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K14" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329464</v>
@@ -5294,34 +5294,34 @@
         <v>2623.528026939507</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
         <v>3325.60582160917</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.60582160917</v>
+        <v>3242.507220395989</v>
       </c>
       <c r="T14" t="n">
-        <v>3146.820141253115</v>
+        <v>3063.721540039935</v>
       </c>
       <c r="U14" t="n">
-        <v>2922.061470075127</v>
+        <v>2837.383130573495</v>
       </c>
       <c r="V14" t="n">
-        <v>2922.061470075127</v>
+        <v>2533.512310489648</v>
       </c>
       <c r="W14" t="n">
-        <v>2596.484882064737</v>
+        <v>2207.935722479257</v>
       </c>
       <c r="X14" t="n">
-        <v>2250.21119106338</v>
+        <v>1861.662031477902</v>
       </c>
       <c r="Y14" t="n">
-        <v>1887.263926347292</v>
+        <v>1498.714766761814</v>
       </c>
     </row>
     <row r="15">
@@ -5349,10 +5349,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J15" t="n">
         <v>160.1893859228007</v>
@@ -5361,7 +5361,7 @@
         <v>398.4535849031478</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>901.2692096237417</v>
+        <v>451.9018305756479</v>
       </c>
       <c r="C16" t="n">
-        <v>759.5250939555585</v>
+        <v>310.1577149074648</v>
       </c>
       <c r="D16" t="n">
-        <v>636.6005218029464</v>
+        <v>187.2331427548528</v>
       </c>
       <c r="E16" t="n">
-        <v>515.8794954802771</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F16" t="n">
-        <v>396.1816152420905</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G16" t="n">
-        <v>255.6708458765328</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H16" t="n">
-        <v>136.6457263541143</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J16" t="n">
-        <v>138.2856940003741</v>
+        <v>138.2856940003742</v>
       </c>
       <c r="K16" t="n">
-        <v>368.9238220705056</v>
+        <v>368.9238220705057</v>
       </c>
       <c r="L16" t="n">
-        <v>712.1345656402569</v>
+        <v>712.1345656402571</v>
       </c>
       <c r="M16" t="n">
         <v>1082.942556361061</v>
@@ -5449,7 +5449,7 @@
         <v>1451.001878188181</v>
       </c>
       <c r="O16" t="n">
-        <v>1776.98242222985</v>
+        <v>1776.982422229849</v>
       </c>
       <c r="P16" t="n">
         <v>2036.240867784764</v>
@@ -5458,28 +5458,28 @@
         <v>2140.502109058534</v>
       </c>
       <c r="R16" t="n">
-        <v>2140.502109058534</v>
+        <v>2077.863719075785</v>
       </c>
       <c r="S16" t="n">
-        <v>2140.502109058534</v>
+        <v>1913.369902162336</v>
       </c>
       <c r="T16" t="n">
-        <v>1945.927560887784</v>
+        <v>1718.795353991585</v>
       </c>
       <c r="U16" t="n">
-        <v>1684.016761273151</v>
+        <v>1456.884554376953</v>
       </c>
       <c r="V16" t="n">
-        <v>1456.524340326988</v>
+        <v>1229.392133430789</v>
       </c>
       <c r="W16" t="n">
-        <v>1450.123602716358</v>
+        <v>967.1670306535526</v>
       </c>
       <c r="X16" t="n">
-        <v>1249.326119078064</v>
+        <v>766.3695470152591</v>
       </c>
       <c r="Y16" t="n">
-        <v>1055.725607194258</v>
+        <v>606.3582281461638</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1855.320338666651</v>
+        <v>1518.904057542001</v>
       </c>
       <c r="C17" t="n">
-        <v>1560.999521934037</v>
+        <v>1518.904057542001</v>
       </c>
       <c r="D17" t="n">
-        <v>1277.375523535083</v>
+        <v>1277.375523535084</v>
       </c>
       <c r="E17" t="n">
-        <v>966.228971144636</v>
+        <v>966.2289711446364</v>
       </c>
       <c r="F17" t="n">
-        <v>629.8847665628255</v>
+        <v>629.8847665628257</v>
       </c>
       <c r="G17" t="n">
         <v>289.4540166156192</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q17" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S17" t="n">
         <v>3289.956853344062</v>
       </c>
       <c r="T17" t="n">
-        <v>3158.620805936082</v>
+        <v>3158.620805936081</v>
       </c>
       <c r="U17" t="n">
-        <v>3158.620805936082</v>
+        <v>2979.732029417714</v>
       </c>
       <c r="V17" t="n">
-        <v>2902.199618800308</v>
+        <v>2723.31084228194</v>
       </c>
       <c r="W17" t="n">
-        <v>2624.072663737991</v>
+        <v>2445.183887219623</v>
       </c>
       <c r="X17" t="n">
-        <v>2325.248605684708</v>
+        <v>2146.35982916634</v>
       </c>
       <c r="Y17" t="n">
-        <v>2167.278478522976</v>
+        <v>1830.862197398326</v>
       </c>
     </row>
     <row r="18">
@@ -5568,37 +5568,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811072</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999803</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387291</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332735</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601586</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5610,34 +5610,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501175</v>
       </c>
     </row>
     <row r="19">
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>632.1517731235555</v>
+        <v>569.1217789872286</v>
       </c>
       <c r="C19" t="n">
-        <v>537.8572904034456</v>
+        <v>474.8272962671187</v>
       </c>
       <c r="D19" t="n">
-        <v>462.3823511989069</v>
+        <v>399.3523570625799</v>
       </c>
       <c r="E19" t="n">
-        <v>326.0809636879836</v>
+        <v>326.0809636879838</v>
       </c>
       <c r="F19" t="n">
-        <v>253.8327163978703</v>
+        <v>253.8327163978704</v>
       </c>
       <c r="G19" t="n">
         <v>160.7715799803863</v>
       </c>
       <c r="H19" t="n">
-        <v>89.19609340604106</v>
+        <v>89.19609340604109</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J19" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L19" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N19" t="n">
         <v>1317.747152581905</v>
@@ -5692,31 +5692,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q19" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R19" t="n">
-        <v>1912.105791053818</v>
+        <v>1912.105791053817</v>
       </c>
       <c r="S19" t="n">
-        <v>1795.061607088441</v>
+        <v>1795.06160708844</v>
       </c>
       <c r="T19" t="n">
-        <v>1647.936691865764</v>
+        <v>1584.906697729438</v>
       </c>
       <c r="U19" t="n">
-        <v>1433.475525199205</v>
+        <v>1370.445531062878</v>
       </c>
       <c r="V19" t="n">
-        <v>1253.432737201115</v>
+        <v>1190.402743064788</v>
       </c>
       <c r="W19" t="n">
-        <v>1038.657267371952</v>
+        <v>975.6272732356247</v>
       </c>
       <c r="X19" t="n">
-        <v>885.3094166817312</v>
+        <v>822.2794225454044</v>
       </c>
       <c r="Y19" t="n">
-        <v>739.1585377459982</v>
+        <v>676.1285436096713</v>
       </c>
     </row>
     <row r="20">
@@ -5726,13 +5726,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1518.976134084841</v>
+        <v>1518.904057542001</v>
       </c>
       <c r="C20" t="n">
-        <v>1224.655317352227</v>
+        <v>1224.583240809387</v>
       </c>
       <c r="D20" t="n">
-        <v>941.0313189532729</v>
+        <v>940.959242410433</v>
       </c>
       <c r="E20" t="n">
         <v>629.8847665628258</v>
@@ -5744,58 +5744,58 @@
         <v>289.4540166156193</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J20" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810566</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S20" t="n">
-        <v>3289.956853344064</v>
+        <v>3289.956853344062</v>
       </c>
       <c r="T20" t="n">
-        <v>3158.620805936083</v>
+        <v>3158.620805936081</v>
       </c>
       <c r="U20" t="n">
-        <v>2979.732029417717</v>
+        <v>2979.732029417714</v>
       </c>
       <c r="V20" t="n">
-        <v>2723.310842281943</v>
+        <v>2723.31084228194</v>
       </c>
       <c r="W20" t="n">
-        <v>2445.183887219626</v>
+        <v>2445.183887219624</v>
       </c>
       <c r="X20" t="n">
-        <v>2146.431905709181</v>
+        <v>2146.359829166341</v>
       </c>
       <c r="Y20" t="n">
-        <v>1830.934273941166</v>
+        <v>1830.862197398326</v>
       </c>
     </row>
     <row r="21">
@@ -5805,46 +5805,46 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D21" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927785</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064588</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K21" t="n">
-        <v>398.453584903148</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P21" t="n">
         <v>2407.411984886741</v>
@@ -5862,7 +5862,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5871,10 +5871,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="22">
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>632.1517731235555</v>
+        <v>632.1517731235538</v>
       </c>
       <c r="C22" t="n">
-        <v>474.8272962671185</v>
+        <v>537.8572904034438</v>
       </c>
       <c r="D22" t="n">
-        <v>399.3523570625798</v>
+        <v>462.382351198905</v>
       </c>
       <c r="E22" t="n">
-        <v>326.0809636879837</v>
+        <v>326.0809636879838</v>
       </c>
       <c r="F22" t="n">
-        <v>253.8327163978703</v>
+        <v>253.8327163978704</v>
       </c>
       <c r="G22" t="n">
         <v>160.7715799803863</v>
@@ -5905,55 +5905,55 @@
         <v>89.19609340604109</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J22" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L22" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760405</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N22" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O22" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P22" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q22" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R22" t="n">
-        <v>1912.105791053818</v>
+        <v>1912.105791053817</v>
       </c>
       <c r="S22" t="n">
-        <v>1795.061607088441</v>
+        <v>1795.06160708844</v>
       </c>
       <c r="T22" t="n">
-        <v>1647.936691865764</v>
+        <v>1647.936691865763</v>
       </c>
       <c r="U22" t="n">
-        <v>1433.475525199205</v>
+        <v>1433.475525199204</v>
       </c>
       <c r="V22" t="n">
-        <v>1253.432737201115</v>
+        <v>1253.432737201114</v>
       </c>
       <c r="W22" t="n">
-        <v>1038.657267371952</v>
+        <v>1038.65726737195</v>
       </c>
       <c r="X22" t="n">
-        <v>885.3094166817312</v>
+        <v>885.3094166817295</v>
       </c>
       <c r="Y22" t="n">
-        <v>739.1585377459982</v>
+        <v>739.1585377459965</v>
       </c>
     </row>
     <row r="23">
@@ -5981,10 +5981,10 @@
         <v>296.3196550059182</v>
       </c>
       <c r="H23" t="n">
-        <v>73.37775482248239</v>
+        <v>73.37775482248237</v>
       </c>
       <c r="I23" t="n">
-        <v>73.37775482248239</v>
+        <v>73.37775482248237</v>
       </c>
       <c r="J23" t="n">
         <v>262.2568857815078</v>
@@ -6002,31 +6002,31 @@
         <v>2127.42119445047</v>
       </c>
       <c r="O23" t="n">
-        <v>2966.809946454456</v>
+        <v>2901.750690780203</v>
       </c>
       <c r="P23" t="n">
-        <v>3361.584312811634</v>
+        <v>3296.525057137381</v>
       </c>
       <c r="Q23" t="n">
-        <v>3609.870674567317</v>
+        <v>3544.811418893063</v>
       </c>
       <c r="R23" t="n">
-        <v>3668.887741124119</v>
+        <v>3668.887741124118</v>
       </c>
       <c r="S23" t="n">
-        <v>3633.238772859012</v>
+        <v>3633.23877285901</v>
       </c>
       <c r="T23" t="n">
-        <v>3501.902725451031</v>
+        <v>3501.902725451029</v>
       </c>
       <c r="U23" t="n">
-        <v>3323.013948932664</v>
+        <v>3323.013948932663</v>
       </c>
       <c r="V23" t="n">
-        <v>3066.59276179689</v>
+        <v>3066.592761796889</v>
       </c>
       <c r="W23" t="n">
-        <v>2788.465806734573</v>
+        <v>2788.465806734572</v>
       </c>
       <c r="X23" t="n">
         <v>2489.64174868129</v>
@@ -6042,10 +6042,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>948.4094928714076</v>
+        <v>948.4094928714077</v>
       </c>
       <c r="C24" t="n">
-        <v>773.9564635902806</v>
+        <v>773.9564635902807</v>
       </c>
       <c r="D24" t="n">
         <v>625.0220539290294</v>
@@ -6054,46 +6054,46 @@
         <v>465.7845989235739</v>
       </c>
       <c r="F24" t="n">
-        <v>319.2500409504589</v>
+        <v>319.2500409504588</v>
       </c>
       <c r="G24" t="n">
-        <v>182.8869407830773</v>
+        <v>182.8869407830769</v>
       </c>
       <c r="H24" t="n">
-        <v>92.3850464209448</v>
+        <v>92.38504642094441</v>
       </c>
       <c r="I24" t="n">
-        <v>73.37775482248239</v>
+        <v>73.37775482248237</v>
       </c>
       <c r="J24" t="n">
-        <v>167.0550243130999</v>
+        <v>167.0550243130997</v>
       </c>
       <c r="K24" t="n">
-        <v>405.3192232934471</v>
+        <v>405.3192232934467</v>
       </c>
       <c r="L24" t="n">
-        <v>772.0173836061125</v>
+        <v>772.017383606112</v>
       </c>
       <c r="M24" t="n">
         <v>1219.293708828428</v>
       </c>
       <c r="N24" t="n">
-        <v>1692.816752382883</v>
+        <v>1692.816752382882</v>
       </c>
       <c r="O24" t="n">
-        <v>2103.778031800938</v>
+        <v>2103.778031800937</v>
       </c>
       <c r="P24" t="n">
-        <v>2414.277623277041</v>
+        <v>2414.27762327704</v>
       </c>
       <c r="Q24" t="n">
         <v>2571.91918092364</v>
       </c>
       <c r="R24" t="n">
-        <v>2571.774827516156</v>
+        <v>2571.774827516155</v>
       </c>
       <c r="S24" t="n">
-        <v>2442.336941009636</v>
+        <v>2442.336941009635</v>
       </c>
       <c r="T24" t="n">
         <v>2249.693940687491</v>
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>575.9874173775272</v>
+        <v>575.987417377527</v>
       </c>
       <c r="C25" t="n">
-        <v>481.6929346574174</v>
+        <v>481.6929346574171</v>
       </c>
       <c r="D25" t="n">
-        <v>406.2179954528787</v>
+        <v>406.2179954528785</v>
       </c>
       <c r="E25" t="n">
-        <v>332.9466020782826</v>
+        <v>332.9466020782824</v>
       </c>
       <c r="F25" t="n">
-        <v>260.6983547881692</v>
+        <v>260.6983547881691</v>
       </c>
       <c r="G25" t="n">
-        <v>167.6372183706852</v>
+        <v>167.6372183706851</v>
       </c>
       <c r="H25" t="n">
-        <v>96.06173179634003</v>
+        <v>96.06173179633997</v>
       </c>
       <c r="I25" t="n">
-        <v>73.37775482248239</v>
+        <v>73.37775482248237</v>
       </c>
       <c r="J25" t="n">
-        <v>118.500387269418</v>
+        <v>118.5003872694179</v>
       </c>
       <c r="K25" t="n">
         <v>322.4875702182943</v>
@@ -6172,25 +6172,25 @@
         <v>1918.971429444117</v>
       </c>
       <c r="S25" t="n">
-        <v>1801.92724547874</v>
+        <v>1738.897251342413</v>
       </c>
       <c r="T25" t="n">
-        <v>1654.802330256063</v>
+        <v>1591.772336119736</v>
       </c>
       <c r="U25" t="n">
-        <v>1440.341163589504</v>
+        <v>1377.311169453176</v>
       </c>
       <c r="V25" t="n">
-        <v>1260.298375591414</v>
+        <v>1197.268381455087</v>
       </c>
       <c r="W25" t="n">
-        <v>1045.522905762251</v>
+        <v>982.4929116259231</v>
       </c>
       <c r="X25" t="n">
-        <v>829.145060935703</v>
+        <v>829.1450609357028</v>
       </c>
       <c r="Y25" t="n">
-        <v>682.9941819999699</v>
+        <v>682.9941819999697</v>
       </c>
     </row>
     <row r="26">
@@ -6206,61 +6206,61 @@
         <v>1711.594658697161</v>
       </c>
       <c r="D26" t="n">
-        <v>1400.778593038483</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E26" t="n">
         <v>1062.439973388313</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467784</v>
+        <v>698.9037015467793</v>
       </c>
       <c r="G26" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J26" t="n">
-        <v>393.2994530991692</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K26" t="n">
-        <v>727.1188267890157</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L26" t="n">
-        <v>1178.153040037424</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M26" t="n">
-        <v>1711.684944709349</v>
+        <v>1921.876785462656</v>
       </c>
       <c r="N26" t="n">
-        <v>2258.463761768131</v>
+        <v>2468.655602521438</v>
       </c>
       <c r="O26" t="n">
-        <v>2761.436232647468</v>
+        <v>2971.628073400775</v>
       </c>
       <c r="P26" t="n">
-        <v>3474.791320094414</v>
+        <v>3684.983160847721</v>
       </c>
       <c r="Q26" t="n">
-        <v>3933.269522603402</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R26" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S26" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T26" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U26" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W26" t="n">
         <v>3040.963574146293</v>
@@ -6300,16 +6300,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J27" t="n">
         <v>174.8241863873065</v>
       </c>
       <c r="K27" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L27" t="n">
-        <v>779.7865456803191</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M27" t="n">
         <v>1227.062870902635</v>
@@ -6361,13 +6361,13 @@
         <v>774.1010502698002</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899666</v>
       </c>
       <c r="D28" t="n">
-        <v>549.9474938257039</v>
+        <v>549.9474938257042</v>
       </c>
       <c r="E28" t="n">
-        <v>449.484033191384</v>
+        <v>449.4840331913844</v>
       </c>
       <c r="F28" t="n">
         <v>350.0437186415473</v>
@@ -6379,19 +6379,19 @@
         <v>131.0229611302705</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960314</v>
+        <v>172.774934596031</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973144</v>
+        <v>423.267502797314</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982172</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M28" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N28" t="n">
         <v>1564.908879308444</v>
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C29" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D29" t="n">
-        <v>1400.778593038483</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E29" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467784</v>
+        <v>698.9037015467798</v>
       </c>
       <c r="G29" t="n">
-        <v>331.2808843398481</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H29" t="n">
         <v>81.14691689668915</v>
@@ -6461,22 +6461,22 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J29" t="n">
-        <v>270.0260478557146</v>
+        <v>270.0260478557147</v>
       </c>
       <c r="K29" t="n">
-        <v>924.7493799910142</v>
+        <v>878.8992091819713</v>
       </c>
       <c r="L29" t="n">
-        <v>1375.783593239423</v>
+        <v>1329.93342243038</v>
       </c>
       <c r="M29" t="n">
-        <v>1909.315497911347</v>
+        <v>1863.465327102305</v>
       </c>
       <c r="N29" t="n">
-        <v>2456.09431497013</v>
+        <v>2410.244144161087</v>
       </c>
       <c r="O29" t="n">
-        <v>2971.628073400774</v>
+        <v>3290.208794490542</v>
       </c>
       <c r="P29" t="n">
         <v>3684.98316084772</v>
@@ -6491,7 +6491,7 @@
         <v>3994.504809309626</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U29" t="n">
         <v>3629.895850863832</v>
@@ -6506,7 +6506,7 @@
         <v>2714.947448833287</v>
       </c>
       <c r="Y29" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="30">
@@ -6516,43 +6516,43 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456142</v>
       </c>
       <c r="C30" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644872</v>
       </c>
       <c r="D30" t="n">
         <v>632.7912160032361</v>
       </c>
       <c r="E30" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977805</v>
       </c>
       <c r="F30" t="n">
         <v>327.0192030246656</v>
       </c>
       <c r="G30" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572842</v>
       </c>
       <c r="H30" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951516</v>
       </c>
       <c r="I30" t="n">
         <v>81.14691689668915</v>
       </c>
       <c r="J30" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873063</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676537</v>
       </c>
       <c r="L30" t="n">
-        <v>779.7865456803191</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N30" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O30" t="n">
         <v>2111.547193875144</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502698002</v>
+        <v>774.1010502698016</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899666</v>
+        <v>652.614500289968</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257056</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913858</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415488</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643411</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302704</v>
       </c>
       <c r="I31" t="n">
         <v>81.14691689668915</v>
@@ -6622,49 +6622,49 @@
         <v>172.7749345960314</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973145</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982175</v>
       </c>
       <c r="M31" t="n">
         <v>1176.995117350173</v>
       </c>
       <c r="N31" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308445</v>
       </c>
       <c r="O31" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481265</v>
       </c>
       <c r="P31" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167331</v>
       </c>
       <c r="Q31" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R31" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S31" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T31" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570353</v>
       </c>
       <c r="U31" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V31" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386256</v>
       </c>
       <c r="W31" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297369</v>
       </c>
       <c r="X31" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347425</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519667</v>
+        <v>908.2998821519679</v>
       </c>
     </row>
     <row r="32">
@@ -6686,7 +6686,7 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467787</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G32" t="n">
         <v>331.2808843398487</v>
@@ -6704,22 +6704,22 @@
         <v>603.8454215455611</v>
       </c>
       <c r="L32" t="n">
-        <v>1054.87963479397</v>
+        <v>1119.741581677074</v>
       </c>
       <c r="M32" t="n">
-        <v>1588.411539465894</v>
+        <v>1653.273486348999</v>
       </c>
       <c r="N32" t="n">
-        <v>2135.190356524677</v>
+        <v>2200.052303407781</v>
       </c>
       <c r="O32" t="n">
-        <v>2826.495488321721</v>
+        <v>3080.016953737236</v>
       </c>
       <c r="P32" t="n">
-        <v>3539.850575768667</v>
+        <v>3474.791320094414</v>
       </c>
       <c r="Q32" t="n">
-        <v>3998.328778277655</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R32" t="n">
         <v>4057.345844834458</v>
@@ -6731,7 +6731,7 @@
         <v>3835.976694641921</v>
       </c>
       <c r="U32" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V32" t="n">
         <v>3346.282596468334</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502698002</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899666</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257042</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913844</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415473</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G34" t="n">
         <v>229.7905149643395</v>
@@ -6856,16 +6856,16 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960311</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973141</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L34" t="n">
-        <v>786.332686498217</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M34" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N34" t="n">
         <v>1564.908879308444</v>
@@ -6877,16 +6877,16 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q34" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R34" t="n">
-        <v>2271.591606277853</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S34" t="n">
         <v>2127.355355052752</v>
       </c>
       <c r="T34" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U34" t="n">
         <v>1711.385138644068</v>
@@ -6895,7 +6895,7 @@
         <v>1504.150283386255</v>
       </c>
       <c r="W34" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X34" t="n">
         <v>1081.642828347423</v>
@@ -6911,31 +6911,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470375</v>
       </c>
       <c r="C35" t="n">
         <v>1440.850850103806</v>
       </c>
       <c r="D35" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070899</v>
       </c>
       <c r="E35" t="n">
-        <v>894.1397680464976</v>
+        <v>894.1397680464984</v>
       </c>
       <c r="F35" t="n">
-        <v>581.8252978307333</v>
+        <v>581.8252978307341</v>
       </c>
       <c r="G35" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495728</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K35" t="n">
         <v>589.2106210810562</v>
@@ -6944,7 +6944,7 @@
         <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N35" t="n">
         <v>2120.555556060172</v>
@@ -6962,16 +6962,16 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T35" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668176</v>
       </c>
       <c r="U35" t="n">
         <v>3051.821232515856</v>
       </c>
       <c r="V35" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746129</v>
       </c>
       <c r="W35" t="n">
         <v>2565.332559049858</v>
@@ -7011,10 +7011,10 @@
         <v>85.51940803064525</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K36" t="n">
         <v>398.4535849031479</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>402.2593958170926</v>
+        <v>500.9308303909357</v>
       </c>
       <c r="C37" t="n">
-        <v>331.9946474630291</v>
+        <v>430.6660820368722</v>
       </c>
       <c r="D37" t="n">
-        <v>280.5494426245367</v>
+        <v>280.5494426245365</v>
       </c>
       <c r="E37" t="n">
-        <v>231.3077836159869</v>
+        <v>231.3077836159868</v>
       </c>
       <c r="F37" t="n">
         <v>183.0892706919199</v>
       </c>
       <c r="G37" t="n">
-        <v>114.0578686404823</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J37" t="n">
         <v>111.634748879119</v>
@@ -7117,28 +7117,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R37" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S37" t="n">
-        <v>1834.280098489163</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T37" t="n">
-        <v>1711.184917632532</v>
+        <v>1522.683025816217</v>
       </c>
       <c r="U37" t="n">
-        <v>1478.120214357884</v>
+        <v>1332.251593515703</v>
       </c>
       <c r="V37" t="n">
-        <v>1223.435726151997</v>
+        <v>1176.23853988366</v>
       </c>
       <c r="W37" t="n">
-        <v>934.0185561150364</v>
+        <v>985.4928044205428</v>
       </c>
       <c r="X37" t="n">
-        <v>706.0290052170191</v>
+        <v>856.1746880963689</v>
       </c>
       <c r="Y37" t="n">
-        <v>485.236426073489</v>
+        <v>635.3821089528387</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C38" t="n">
         <v>1440.850850103805</v>
@@ -7157,10 +7157,10 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E38" t="n">
-        <v>894.1397680464975</v>
+        <v>894.1397680464969</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307332</v>
+        <v>581.8252978307327</v>
       </c>
       <c r="G38" t="n">
         <v>265.4242822495729</v>
@@ -7172,22 +7172,22 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
         <v>3018.302393296687</v>
@@ -7214,7 +7214,7 @@
         <v>2565.332559049857</v>
       </c>
       <c r="X38" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y38" t="n">
         <v>1999.070337960652</v>
@@ -7227,25 +7227,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G39" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I39" t="n">
         <v>66.51211643218343</v>
@@ -7254,10 +7254,10 @@
         <v>160.1893859228008</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7284,7 +7284,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V39" t="n">
         <v>1779.608347199865</v>
@@ -7293,10 +7293,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="40">
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>500.9308303909361</v>
+        <v>500.9308303909362</v>
       </c>
       <c r="C40" t="n">
-        <v>331.9946474630292</v>
+        <v>430.6660820368726</v>
       </c>
       <c r="D40" t="n">
-        <v>280.5494426245368</v>
+        <v>379.2208771983802</v>
       </c>
       <c r="E40" t="n">
-        <v>231.3077836159871</v>
+        <v>329.9792181898304</v>
       </c>
       <c r="F40" t="n">
-        <v>183.08927069192</v>
+        <v>281.7607052657634</v>
       </c>
       <c r="G40" t="n">
         <v>114.0578686404823</v>
@@ -7354,28 +7354,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R40" t="n">
-        <v>1884.661277114358</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S40" t="n">
-        <v>1791.646827515028</v>
+        <v>1834.280098489162</v>
       </c>
       <c r="T40" t="n">
-        <v>1668.551646658397</v>
+        <v>1711.184917632532</v>
       </c>
       <c r="U40" t="n">
-        <v>1379.448779784041</v>
+        <v>1520.753485332019</v>
       </c>
       <c r="V40" t="n">
-        <v>1223.435726151997</v>
+        <v>1364.740431699975</v>
       </c>
       <c r="W40" t="n">
-        <v>934.0185561150365</v>
+        <v>1075.323261663014</v>
       </c>
       <c r="X40" t="n">
-        <v>706.0290052170192</v>
+        <v>903.3718743647061</v>
       </c>
       <c r="Y40" t="n">
-        <v>583.9078606473324</v>
+        <v>682.5792952211759</v>
       </c>
     </row>
     <row r="41">
@@ -7391,7 +7391,7 @@
         <v>1440.850850103806</v>
       </c>
       <c r="D41" t="n">
-        <v>1181.256586070899</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E41" t="n">
         <v>894.1397680464979</v>
@@ -7403,10 +7403,10 @@
         <v>265.4242822495729</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J41" t="n">
         <v>255.3912473912089</v>
@@ -7427,16 +7427,16 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3313.986587710111</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T41" t="n">
         <v>3206.680274668176</v>
@@ -7448,7 +7448,7 @@
         <v>2819.429779746128</v>
       </c>
       <c r="W41" t="n">
-        <v>2565.332559049858</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X41" t="n">
         <v>2290.538235362621</v>
@@ -7485,10 +7485,10 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K42" t="n">
         <v>398.4535849031477</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>500.9308303909362</v>
+        <v>500.9308303909359</v>
       </c>
       <c r="C43" t="n">
-        <v>430.6660820368726</v>
+        <v>331.9946474630289</v>
       </c>
       <c r="D43" t="n">
-        <v>280.5494426245369</v>
+        <v>280.5494426245366</v>
       </c>
       <c r="E43" t="n">
-        <v>231.3077836159871</v>
+        <v>231.3077836159869</v>
       </c>
       <c r="F43" t="n">
-        <v>183.0892706919201</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G43" t="n">
         <v>114.0578686404823</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J43" t="n">
         <v>111.634748879119</v>
@@ -7591,28 +7591,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R43" t="n">
-        <v>1837.464090846021</v>
+        <v>1884.661277114358</v>
       </c>
       <c r="S43" t="n">
-        <v>1744.44964124669</v>
+        <v>1791.646827515027</v>
       </c>
       <c r="T43" t="n">
-        <v>1621.35446039006</v>
+        <v>1569.880212084553</v>
       </c>
       <c r="U43" t="n">
-        <v>1332.251593515703</v>
+        <v>1379.44877978404</v>
       </c>
       <c r="V43" t="n">
-        <v>1077.567105309816</v>
+        <v>1223.435726151997</v>
       </c>
       <c r="W43" t="n">
-        <v>835.3471215411932</v>
+        <v>1032.68999068888</v>
       </c>
       <c r="X43" t="n">
-        <v>706.0290052170193</v>
+        <v>903.3718743647057</v>
       </c>
       <c r="Y43" t="n">
-        <v>583.9078606473325</v>
+        <v>682.5792952211756</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C44" t="n">
-        <v>1440.850850103806</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D44" t="n">
-        <v>1181.256586070899</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E44" t="n">
-        <v>894.1397680464979</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F44" t="n">
-        <v>581.8252978307337</v>
+        <v>581.825297830733</v>
       </c>
       <c r="G44" t="n">
         <v>265.4242822495729</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R44" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T44" t="n">
-        <v>3206.680274668176</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U44" t="n">
-        <v>3051.821232515857</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V44" t="n">
-        <v>2819.429779746129</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W44" t="n">
-        <v>2565.332559049858</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X44" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y44" t="n">
-        <v>1999.070337960653</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="45">
@@ -7701,31 +7701,31 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K45" t="n">
         <v>398.4535849031479</v>
@@ -7758,7 +7758,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V45" t="n">
         <v>1779.608347199865</v>
@@ -7767,10 +7767,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="46">
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>543.5641013650705</v>
+        <v>402.2593958170926</v>
       </c>
       <c r="C46" t="n">
-        <v>473.2993530110069</v>
+        <v>331.9946474630291</v>
       </c>
       <c r="D46" t="n">
-        <v>323.1827135986712</v>
+        <v>280.5494426245367</v>
       </c>
       <c r="E46" t="n">
-        <v>231.3077836159871</v>
+        <v>231.307783615987</v>
       </c>
       <c r="F46" t="n">
         <v>183.08927069192</v>
@@ -7798,10 +7798,10 @@
         <v>114.0578686404823</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J46" t="n">
         <v>111.634748879119</v>
@@ -7831,25 +7831,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S46" t="n">
-        <v>1834.280098489162</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T46" t="n">
-        <v>1711.184917632532</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U46" t="n">
-        <v>1422.082050758175</v>
+        <v>1280.777345210197</v>
       </c>
       <c r="V46" t="n">
-        <v>1266.068997126132</v>
+        <v>1124.764291578154</v>
       </c>
       <c r="W46" t="n">
-        <v>976.6518270891711</v>
+        <v>934.0185561150364</v>
       </c>
       <c r="X46" t="n">
-        <v>847.333710764997</v>
+        <v>706.0290052170191</v>
       </c>
       <c r="Y46" t="n">
-        <v>626.5411316214669</v>
+        <v>583.9078606473323</v>
       </c>
     </row>
   </sheetData>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>157.2353108430636</v>
+        <v>157.2353108430629</v>
       </c>
       <c r="K8" t="n">
-        <v>184.4039433729015</v>
+        <v>184.4039433729005</v>
       </c>
       <c r="L8" t="n">
-        <v>191.4948909389613</v>
+        <v>191.4948909389601</v>
       </c>
       <c r="M8" t="n">
-        <v>181.0856325333077</v>
+        <v>181.0856325333064</v>
       </c>
       <c r="N8" t="n">
-        <v>179.3553748830251</v>
+        <v>179.3553748830237</v>
       </c>
       <c r="O8" t="n">
-        <v>182.8301554384</v>
+        <v>182.8301554383987</v>
       </c>
       <c r="P8" t="n">
-        <v>190.8908035586593</v>
+        <v>190.8908035586582</v>
       </c>
       <c r="Q8" t="n">
-        <v>192.010383626613</v>
+        <v>192.0103836266122</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>112.6562001875977</v>
+        <v>112.6562001875973</v>
       </c>
       <c r="K9" t="n">
-        <v>113.6031223372538</v>
+        <v>113.6031223372531</v>
       </c>
       <c r="L9" t="n">
-        <v>105.962971867228</v>
+        <v>105.9629718672271</v>
       </c>
       <c r="M9" t="n">
-        <v>104.10139812536</v>
+        <v>104.101398125359</v>
       </c>
       <c r="N9" t="n">
-        <v>92.30246558677733</v>
+        <v>92.30246558677626</v>
       </c>
       <c r="O9" t="n">
-        <v>106.8829608359743</v>
+        <v>106.8829608359733</v>
       </c>
       <c r="P9" t="n">
-        <v>105.311348779833</v>
+        <v>105.3113487798322</v>
       </c>
       <c r="Q9" t="n">
-        <v>120.8212784615461</v>
+        <v>120.8212784615456</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>116.1755252564662</v>
+        <v>116.1755252564656</v>
       </c>
       <c r="M10" t="n">
-        <v>119.1996074085231</v>
+        <v>119.1996074085226</v>
       </c>
       <c r="N10" t="n">
-        <v>108.4284123140782</v>
+        <v>108.4284123140776</v>
       </c>
       <c r="O10" t="n">
-        <v>120.6694600530928</v>
+        <v>120.6694600530923</v>
       </c>
       <c r="P10" t="n">
-        <v>122.5080856662707</v>
+        <v>122.5080856662703</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8763,7 +8763,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.13331566353736e-12</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -8945,7 +8945,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.663381206337363e-13</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9650,7 +9650,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>339.8144253784336</v>
+        <v>274.0980055054501</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>124.5185911550046</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9881,7 +9881,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>336.8335818149105</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -9893,7 +9893,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -10112,7 +10112,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>277.8321087236465</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10124,10 +10124,10 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>12.68816924374494</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10352,7 +10352,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>65.51711806374198</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10361,16 +10361,16 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>190.2350110279878</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10659,7 +10659,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>2.025046796916286e-13</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10896,7 +10896,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -11072,10 +11072,10 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P41" t="n">
-        <v>1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -11370,7 +11370,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>2.025046796916286e-13</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -23033,7 +23033,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.02219619719372</v>
+        <v>15.02219619719371</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>355.8136950763541</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>6.295328980778885</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>327.7628950335564</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>355.0102234851353</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>379.9558991545849</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>267.6876178001939</v>
       </c>
       <c r="I11" t="n">
-        <v>14.65678318579946</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23315,7 +23315,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>300.8321118830084</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>2.707073719584723</v>
       </c>
     </row>
     <row r="12">
@@ -23419,19 +23419,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>121.6953264310858</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>118.5009014358047</v>
       </c>
       <c r="G13" t="n">
         <v>139.1056616719017</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>29.39284298067184</v>
       </c>
       <c r="I13" t="n">
         <v>69.43227382271161</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>62.01200608292085</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>15.91255799967381</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>191.6645067649683</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23498,7 +23498,7 @@
         <v>338.352745183881</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>327.7628950335564</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23507,13 +23507,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>339.2451739420605</v>
       </c>
       <c r="H14" t="n">
-        <v>267.6876178001939</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>14.65678318579949</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,16 +23543,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.26761520104935</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>1.563940905567359</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>300.8321118830084</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>118.5009014358047</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>139.1056616719017</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>117.8348683271943</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>69.43227382271161</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>62.01200608292086</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>162.8488787443154</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>253.2661215149404</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>33.25330108456399</v>
       </c>
     </row>
     <row r="17">
@@ -23732,10 +23732,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>291.3776085652885</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>41.67450974811595</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23786,7 +23786,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>177.0998887531829</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23798,7 +23798,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>155.9522295602204</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23975,7 +23975,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>0.07135577741161114</v>
       </c>
       <c r="F20" t="n">
         <v>332.9807625359924</v>
@@ -24032,7 +24032,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0.07135577740922372</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24695,7 +24695,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>5.897504706808832e-13</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -25874,7 +25874,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25916,7 +25916,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>2.060573933704291e-12</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1084330.272375588</v>
+        <v>1084330.272375587</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>904665.4924788164</v>
+        <v>904665.4924788165</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>904665.4924788163</v>
+        <v>904665.4924788165</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>984279.2473972292</v>
+        <v>984279.2473972291</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>984279.2473972294</v>
+        <v>984279.2473972292</v>
       </c>
     </row>
     <row r="9">
@@ -26311,31 +26311,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>430120.0778264451</v>
+        <v>430120.0778264452</v>
       </c>
       <c r="C2" t="n">
-        <v>430120.0778264452</v>
+        <v>430120.077826445</v>
       </c>
       <c r="D2" t="n">
-        <v>430131.8016481217</v>
+        <v>430131.8016481221</v>
       </c>
       <c r="E2" t="n">
-        <v>383008.5004751118</v>
+        <v>383008.5004751119</v>
       </c>
       <c r="F2" t="n">
-        <v>383008.5004751119</v>
+        <v>383008.5004751121</v>
       </c>
       <c r="G2" t="n">
-        <v>417128.6811544317</v>
+        <v>417128.6811544315</v>
       </c>
       <c r="H2" t="n">
-        <v>417128.6811544317</v>
+        <v>417128.6811544314</v>
       </c>
       <c r="I2" t="n">
         <v>431046.9291787487</v>
       </c>
       <c r="J2" t="n">
-        <v>431046.9291787488</v>
+        <v>431046.9291787489</v>
       </c>
       <c r="K2" t="n">
         <v>431046.9291787487</v>
@@ -26344,7 +26344,7 @@
         <v>431046.9291787489</v>
       </c>
       <c r="M2" t="n">
-        <v>431046.9291787483</v>
+        <v>431046.9291787485</v>
       </c>
       <c r="N2" t="n">
         <v>431046.9291787485</v>
@@ -26369,31 +26369,31 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>59764.55367552163</v>
+        <v>59764.55367552328</v>
       </c>
       <c r="E3" t="n">
-        <v>1089238.972163633</v>
+        <v>1089238.972163631</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>37580.10929487421</v>
+        <v>37580.109294874</v>
       </c>
       <c r="H3" t="n">
-        <v>1.22694927995326e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>22821.46782983354</v>
+        <v>22821.46782983407</v>
       </c>
       <c r="J3" t="n">
-        <v>25409.43302179695</v>
+        <v>25409.43302179704</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487405</v>
+        <v>37580.10929487395</v>
       </c>
       <c r="M3" t="n">
         <v>202168.0999927243</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-11</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,16 +26421,16 @@
         <v>441649.2499958205</v>
       </c>
       <c r="D4" t="n">
-        <v>421637.938799543</v>
+        <v>421637.9387995424</v>
       </c>
       <c r="E4" t="n">
-        <v>38804.2740136252</v>
+        <v>38804.27401362524</v>
       </c>
       <c r="F4" t="n">
-        <v>38804.2740136252</v>
+        <v>38804.27401362523</v>
       </c>
       <c r="G4" t="n">
-        <v>75832.43437506739</v>
+        <v>75832.43437506736</v>
       </c>
       <c r="H4" t="n">
         <v>75832.43437506737</v>
@@ -26439,25 +26439,25 @@
         <v>88045.16093451306</v>
       </c>
       <c r="J4" t="n">
+        <v>84858.1594017309</v>
+      </c>
+      <c r="K4" t="n">
+        <v>84858.1594017309</v>
+      </c>
+      <c r="L4" t="n">
         <v>84858.15940173084</v>
       </c>
-      <c r="K4" t="n">
-        <v>84858.15940173084</v>
-      </c>
-      <c r="L4" t="n">
-        <v>84858.15940173085</v>
-      </c>
       <c r="M4" t="n">
-        <v>90964.01098815708</v>
+        <v>90964.0109881571</v>
       </c>
       <c r="N4" t="n">
-        <v>90964.01098815704</v>
+        <v>90964.01098815707</v>
       </c>
       <c r="O4" t="n">
-        <v>90964.01098815708</v>
+        <v>90964.01098815711</v>
       </c>
       <c r="P4" t="n">
-        <v>90964.01098815704</v>
+        <v>90964.0109881571</v>
       </c>
     </row>
     <row r="5">
@@ -26473,19 +26473,19 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>35148.90543186633</v>
+        <v>35148.90543186637</v>
       </c>
       <c r="E5" t="n">
-        <v>76569.49036482644</v>
+        <v>76569.49036482643</v>
       </c>
       <c r="F5" t="n">
-        <v>76569.49036482642</v>
+        <v>76569.49036482643</v>
       </c>
       <c r="G5" t="n">
-        <v>80518.64312521489</v>
+        <v>80518.64312521488</v>
       </c>
       <c r="H5" t="n">
-        <v>80518.64312521491</v>
+        <v>80518.64312521486</v>
       </c>
       <c r="I5" t="n">
         <v>85736.5283018421</v>
@@ -26500,7 +26500,7 @@
         <v>89377.94167480612</v>
       </c>
       <c r="M5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624987</v>
       </c>
       <c r="N5" t="n">
         <v>82518.59730624985</v>
@@ -26509,7 +26509,7 @@
         <v>82518.59730624987</v>
       </c>
       <c r="P5" t="n">
-        <v>82518.59730624984</v>
+        <v>82518.59730624985</v>
       </c>
     </row>
     <row r="6">
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-45156.77216937535</v>
+        <v>-45161.18574724335</v>
       </c>
       <c r="C6" t="n">
-        <v>-45156.77216937535</v>
+        <v>-45161.18574724358</v>
       </c>
       <c r="D6" t="n">
-        <v>-86419.59625880918</v>
+        <v>-86423.95400895581</v>
       </c>
       <c r="E6" t="n">
-        <v>-821604.2360669727</v>
+        <v>-821832.9904893694</v>
       </c>
       <c r="F6" t="n">
-        <v>267634.7360966603</v>
+        <v>267405.9816742621</v>
       </c>
       <c r="G6" t="n">
-        <v>223197.4943592752</v>
+        <v>223131.2169877309</v>
       </c>
       <c r="H6" t="n">
-        <v>260777.6036541493</v>
+        <v>260711.326282605</v>
       </c>
       <c r="I6" t="n">
-        <v>234443.7721125601</v>
+        <v>234443.7721125595</v>
       </c>
       <c r="J6" t="n">
-        <v>231401.3950804149</v>
+        <v>231401.3950804148</v>
       </c>
       <c r="K6" t="n">
-        <v>256810.8281022118</v>
+        <v>256810.8281022116</v>
       </c>
       <c r="L6" t="n">
-        <v>219230.7188073378</v>
+        <v>219230.718807338</v>
       </c>
       <c r="M6" t="n">
-        <v>55396.22089161705</v>
+        <v>55396.22089161727</v>
       </c>
       <c r="N6" t="n">
-        <v>257564.3208843417</v>
+        <v>257564.3208843416</v>
       </c>
       <c r="O6" t="n">
-        <v>257564.3208843417</v>
+        <v>257564.3208843415</v>
       </c>
       <c r="P6" t="n">
         <v>257564.3208843415</v>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712651</v>
       </c>
       <c r="F2" t="n">
-        <v>26.92014658712649</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="G2" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="H2" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="I2" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="J2" t="n">
+        <v>46.97513661859257</v>
+      </c>
+      <c r="K2" t="n">
+        <v>46.97513661859261</v>
+      </c>
+      <c r="L2" t="n">
         <v>46.97513661859256</v>
       </c>
-      <c r="K2" t="n">
-        <v>46.97513661859254</v>
-      </c>
-      <c r="L2" t="n">
-        <v>46.97513661859255</v>
-      </c>
       <c r="M2" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="O2" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="P2" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810491</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790507</v>
+        <v>69.78465283790699</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26762,7 +26762,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="K3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="L3" t="n">
         <v>1089.776700593298</v>
@@ -26796,22 +26796,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="F4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="G4" t="n">
         <v>831.4014554022924</v>
       </c>
-      <c r="G4" t="n">
-        <v>831.4014554022926</v>
-      </c>
       <c r="H4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="I4" t="n">
-        <v>917.2219352810298</v>
+        <v>917.2219352810296</v>
       </c>
       <c r="J4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="K4" t="n">
         <v>1014.336461208614</v>
@@ -26820,16 +26820,16 @@
         <v>1014.336461208614</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
     </row>
   </sheetData>
@@ -26914,37 +26914,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712651</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859244</v>
       </c>
       <c r="M2" t="n">
-        <v>50.70958360951237</v>
+        <v>50.7095836095124</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26963,22 +26963,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790507</v>
+        <v>69.78465283790699</v>
       </c>
       <c r="E3" t="n">
-        <v>1019.992047755393</v>
+        <v>1019.992047755391</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27027,13 +27027,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>85.82047987873671</v>
+        <v>85.82047987873716</v>
       </c>
       <c r="J4" t="n">
-        <v>97.11452592758462</v>
+        <v>97.11452592758496</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>648.4664495959711</v>
+        <v>648.466449595971</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,25 +27151,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712651</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27273,7 +27273,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>336.6017083434006</v>
+        <v>336.6017083434004</v>
       </c>
       <c r="I8" t="n">
-        <v>199.6603204104729</v>
+        <v>199.6603204104726</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>132.2465643780178</v>
+        <v>132.2465643780173</v>
       </c>
       <c r="S8" t="n">
-        <v>202.6272343036574</v>
+        <v>202.6272343036572</v>
       </c>
       <c r="T8" t="n">
         <v>221.8677799448432</v>
@@ -27950,7 +27950,7 @@
         <v>110.7857668256562</v>
       </c>
       <c r="I9" t="n">
-        <v>84.22861846672116</v>
+        <v>84.22861846672102</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,10 +27977,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>90.83829126987536</v>
+        <v>90.8382912698751</v>
       </c>
       <c r="S9" t="n">
-        <v>168.8950767192291</v>
+        <v>168.895076719229</v>
       </c>
       <c r="T9" t="n">
         <v>199.5597089216326</v>
@@ -28026,16 +28026,16 @@
         <v>167.8651381812101</v>
       </c>
       <c r="H10" t="n">
-        <v>161.1083300406286</v>
+        <v>161.1083300406285</v>
       </c>
       <c r="I10" t="n">
-        <v>151.6660875241798</v>
+        <v>151.6660875241797</v>
       </c>
       <c r="J10" t="n">
-        <v>84.46220888519102</v>
+        <v>84.46220888519076</v>
       </c>
       <c r="K10" t="n">
-        <v>7.649035050990614</v>
+        <v>7.649035050990213</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,16 +28053,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>75.62456067317072</v>
+        <v>75.62456067317044</v>
       </c>
       <c r="R10" t="n">
-        <v>171.6351144437879</v>
+        <v>171.6351144437877</v>
       </c>
       <c r="S10" t="n">
         <v>221.8235295207384</v>
       </c>
       <c r="T10" t="n">
-        <v>227.407904398219</v>
+        <v>227.4079043982189</v>
       </c>
       <c r="U10" t="n">
         <v>286.3121652922773</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712651</v>
       </c>
       <c r="C11" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712651</v>
       </c>
       <c r="D11" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712651</v>
       </c>
       <c r="E11" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712651</v>
       </c>
       <c r="F11" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712651</v>
       </c>
       <c r="G11" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712651</v>
       </c>
       <c r="H11" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712651</v>
       </c>
       <c r="I11" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712651</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712651</v>
       </c>
       <c r="T11" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712651</v>
       </c>
       <c r="U11" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712651</v>
       </c>
       <c r="V11" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712651</v>
       </c>
       <c r="W11" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712651</v>
       </c>
       <c r="X11" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712651</v>
       </c>
       <c r="Y11" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712651</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712651</v>
       </c>
       <c r="C13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712651</v>
       </c>
       <c r="D13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712651</v>
       </c>
       <c r="E13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712651</v>
       </c>
       <c r="F13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712651</v>
       </c>
       <c r="G13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712651</v>
       </c>
       <c r="H13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712651</v>
       </c>
       <c r="I13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712651</v>
       </c>
       <c r="J13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712651</v>
       </c>
       <c r="K13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712651</v>
       </c>
       <c r="L13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712651</v>
       </c>
       <c r="M13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712651</v>
       </c>
       <c r="N13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712651</v>
       </c>
       <c r="O13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712651</v>
       </c>
       <c r="P13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712651</v>
       </c>
       <c r="Q13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712651</v>
       </c>
       <c r="R13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712651</v>
       </c>
       <c r="S13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712651</v>
       </c>
       <c r="T13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712651</v>
       </c>
       <c r="U13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712651</v>
       </c>
       <c r="V13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712651</v>
       </c>
       <c r="W13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712651</v>
       </c>
       <c r="X13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712651</v>
       </c>
       <c r="Y13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712651</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>26.92014658712649</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="C14" t="n">
-        <v>26.92014658712649</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="D14" t="n">
-        <v>26.92014658712649</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="E14" t="n">
-        <v>26.92014658712649</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="F14" t="n">
-        <v>26.92014658712649</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="G14" t="n">
-        <v>26.92014658712649</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="H14" t="n">
-        <v>26.92014658712649</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="I14" t="n">
-        <v>26.92014658712649</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>26.92014658712649</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="T14" t="n">
-        <v>26.92014658712649</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="U14" t="n">
-        <v>26.92014658712649</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="V14" t="n">
-        <v>26.92014658712649</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="W14" t="n">
-        <v>26.92014658712649</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="X14" t="n">
-        <v>26.92014658712649</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="Y14" t="n">
-        <v>26.92014658712649</v>
+        <v>26.9201465871265</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="C16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="D16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="E16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="F16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="G16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="H16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="I16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="J16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="K16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="L16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="M16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="N16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="O16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="P16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="Q16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="R16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="S16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="T16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="U16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="V16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="W16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="X16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="Y16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.9201465871265</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="C17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="D17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="E17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="F17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="G17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="H17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="T17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="U17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="V17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="W17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="X17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="Y17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="C19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="D19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="E19" t="n">
-        <v>11.49558901075511</v>
+        <v>73.895283205719</v>
       </c>
       <c r="F19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="G19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="H19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="I19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="S19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="T19" t="n">
-        <v>73.89528320571904</v>
+        <v>11.49558901075636</v>
       </c>
       <c r="U19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="V19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="W19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="X19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="Y19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="C20" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="D20" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="E20" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="F20" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="G20" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="H20" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="T20" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="U20" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="V20" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="W20" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="X20" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="Y20" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="C22" t="n">
-        <v>11.49558901075528</v>
+        <v>73.895283205719</v>
       </c>
       <c r="D22" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="E22" t="n">
-        <v>73.89528320571904</v>
+        <v>11.49558901075716</v>
       </c>
       <c r="F22" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="G22" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="H22" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="I22" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="S22" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="T22" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="U22" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="V22" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="W22" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="X22" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="Y22" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="C23" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="D23" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="E23" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="F23" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="G23" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="H23" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="T23" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="U23" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="V23" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="W23" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="X23" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="Y23" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571908</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="C25" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="D25" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="E25" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="F25" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="G25" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="H25" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="I25" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="S25" t="n">
-        <v>73.89528320571904</v>
+        <v>11.49558901075508</v>
       </c>
       <c r="T25" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="U25" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="V25" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="W25" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="X25" t="n">
-        <v>11.49558901075511</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="Y25" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571908</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810496</v>
       </c>
     </row>
     <row r="36">
@@ -30141,25 +30141,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.68472022810492</v>
+        <v>46.72521440565333</v>
       </c>
       <c r="C37" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="D37" t="n">
-        <v>97.68472022810492</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="F37" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="G37" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="H37" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983809</v>
@@ -30189,25 +30189,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>97.68472022810492</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="U37" t="n">
-        <v>55.47778196371129</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
     </row>
     <row r="39">
@@ -30378,25 +30378,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810489</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="E40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="F40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="G40" t="n">
-        <v>97.68472022810489</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983809</v>
@@ -30426,28 +30426,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.7252144056541</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="T40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="V40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>55.47778196371195</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810489</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C41" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D41" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E41" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F41" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G41" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H41" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T41" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U41" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V41" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W41" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X41" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="42">
@@ -30615,25 +30615,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.68472022810488</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>97.68472022810488</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E43" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F43" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G43" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H43" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983809</v>
@@ -30663,28 +30663,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.72521440565342</v>
       </c>
       <c r="S43" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T43" t="n">
-        <v>97.68472022810488</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W43" t="n">
-        <v>46.72521440565399</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X43" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.68472022810488</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="C44" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="D44" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="E44" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="F44" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="G44" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="H44" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="T44" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="U44" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="V44" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="W44" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="X44" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810491</v>
       </c>
     </row>
     <row r="45">
@@ -30852,25 +30852,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.68472022810488</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="E46" t="n">
-        <v>55.47778196371193</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="F46" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="G46" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="H46" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="I46" t="n">
         <v>96.35242040983809</v>
@@ -30903,25 +30903,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>97.68472022810488</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>97.68472022810488</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>55.47778196371129</v>
       </c>
       <c r="V46" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="X46" t="n">
-        <v>97.68472022810488</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>97.68472022810491</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2805413179413267</v>
+        <v>0.2805413179413344</v>
       </c>
       <c r="H8" t="n">
-        <v>2.873093772366613</v>
+        <v>2.873093772366692</v>
       </c>
       <c r="I8" t="n">
-        <v>10.81556915993301</v>
+        <v>10.81556915993331</v>
       </c>
       <c r="J8" t="n">
-        <v>23.8105936836227</v>
+        <v>23.81059368362335</v>
       </c>
       <c r="K8" t="n">
-        <v>35.68590767207907</v>
+        <v>35.68590767208005</v>
       </c>
       <c r="L8" t="n">
-        <v>44.27152403102595</v>
+        <v>44.27152403102717</v>
       </c>
       <c r="M8" t="n">
-        <v>49.26060069396502</v>
+        <v>49.26060069396637</v>
       </c>
       <c r="N8" t="n">
-        <v>50.05768871356582</v>
+        <v>50.0576887135672</v>
       </c>
       <c r="O8" t="n">
-        <v>47.26805598328675</v>
+        <v>47.26805598328804</v>
       </c>
       <c r="P8" t="n">
-        <v>40.34219219661023</v>
+        <v>40.34219219661135</v>
       </c>
       <c r="Q8" t="n">
-        <v>30.29530624783646</v>
+        <v>30.2953062478373</v>
       </c>
       <c r="R8" t="n">
-        <v>17.62255356313188</v>
+        <v>17.62255356313236</v>
       </c>
       <c r="S8" t="n">
-        <v>6.392835282587988</v>
+        <v>6.392835282588164</v>
       </c>
       <c r="T8" t="n">
-        <v>1.228069619288158</v>
+        <v>1.228069619288192</v>
       </c>
       <c r="U8" t="n">
-        <v>0.02244330543530613</v>
+        <v>0.02244330543530675</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1501028381796449</v>
+        <v>0.150102838179649</v>
       </c>
       <c r="H9" t="n">
-        <v>1.449677410840255</v>
+        <v>1.449677410840295</v>
       </c>
       <c r="I9" t="n">
-        <v>5.168014384693914</v>
+        <v>5.168014384694056</v>
       </c>
       <c r="J9" t="n">
-        <v>14.18142647906899</v>
+        <v>14.18142647906938</v>
       </c>
       <c r="K9" t="n">
-        <v>24.2383166371052</v>
+        <v>24.23831663710587</v>
       </c>
       <c r="L9" t="n">
-        <v>32.59140791264614</v>
+        <v>32.59140791264704</v>
       </c>
       <c r="M9" t="n">
-        <v>38.03263579665826</v>
+        <v>38.03263579665931</v>
       </c>
       <c r="N9" t="n">
-        <v>39.03924649655598</v>
+        <v>39.03924649655705</v>
       </c>
       <c r="O9" t="n">
-        <v>35.71328360847016</v>
+        <v>35.71328360847114</v>
       </c>
       <c r="P9" t="n">
-        <v>28.66305863449728</v>
+        <v>28.66305863449806</v>
       </c>
       <c r="Q9" t="n">
-        <v>19.16049562447537</v>
+        <v>19.1604956244759</v>
       </c>
       <c r="R9" t="n">
-        <v>9.319542882767779</v>
+        <v>9.319542882768035</v>
       </c>
       <c r="S9" t="n">
-        <v>2.788094384608753</v>
+        <v>2.788094384608829</v>
       </c>
       <c r="T9" t="n">
-        <v>0.605019773189007</v>
+        <v>0.6050197731890236</v>
       </c>
       <c r="U9" t="n">
-        <v>0.009875186722345062</v>
+        <v>0.009875186722345332</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1258411772486813</v>
+        <v>0.1258411772486847</v>
       </c>
       <c r="H10" t="n">
-        <v>1.118842466811003</v>
+        <v>1.118842466811034</v>
       </c>
       <c r="I10" t="n">
-        <v>3.784387403078525</v>
+        <v>3.784387403078629</v>
       </c>
       <c r="J10" t="n">
-        <v>8.896971231481764</v>
+        <v>8.896971231482009</v>
       </c>
       <c r="K10" t="n">
-        <v>14.62045677489224</v>
+        <v>14.62045677489264</v>
       </c>
       <c r="L10" t="n">
-        <v>18.70915102477213</v>
+        <v>18.70915102477264</v>
       </c>
       <c r="M10" t="n">
-        <v>19.72617653908192</v>
+        <v>19.72617653908246</v>
       </c>
       <c r="N10" t="n">
-        <v>19.25713215115503</v>
+        <v>19.25713215115556</v>
       </c>
       <c r="O10" t="n">
-        <v>17.78707839874997</v>
+        <v>17.78707839875046</v>
       </c>
       <c r="P10" t="n">
-        <v>15.21991838287686</v>
+        <v>15.21991838287728</v>
       </c>
       <c r="Q10" t="n">
-        <v>10.53748257852367</v>
+        <v>10.53748257852395</v>
       </c>
       <c r="R10" t="n">
-        <v>5.658276933381613</v>
+        <v>5.658276933381768</v>
       </c>
       <c r="S10" t="n">
-        <v>2.193068516233835</v>
+        <v>2.193068516233896</v>
       </c>
       <c r="T10" t="n">
-        <v>0.5376850300625471</v>
+        <v>0.5376850300625619</v>
       </c>
       <c r="U10" t="n">
-        <v>0.00686406421356444</v>
+        <v>0.006864064213564629</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31835,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31923,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31941,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32081,13 +32081,13 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138799</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
         <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837928</v>
       </c>
       <c r="O15" t="n">
         <v>557.7086478970249</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32309,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32397,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32415,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H21" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837935</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q22" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32789,7 +32789,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L24" t="n">
         <v>508.9565619138796</v>
@@ -33026,7 +33026,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
         <v>508.9565619138796</v>
@@ -33044,7 +33044,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H29" t="n">
         <v>44.86703772844668</v>
@@ -33181,40 +33181,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T29" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U29" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,46 +33251,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H30" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L30" t="n">
         <v>508.9565619138797</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q30" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33333,43 +33333,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K31" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L31" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P31" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q31" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U31" t="n">
         <v>0.1071911508780295</v>
@@ -33506,7 +33506,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
         <v>609.6478166837925</v>
@@ -33518,7 +33518,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33974,7 +33974,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
         <v>508.9565619138796</v>
@@ -34208,10 +34208,10 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
         <v>508.9565619138796</v>
@@ -34454,7 +34454,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
         <v>609.6478166837925</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>72.49856320019272</v>
+        <v>72.49856320019271</v>
       </c>
       <c r="K13" t="n">
         <v>232.967806131446</v>
@@ -35580,13 +35580,13 @@
         <v>371.7770927546666</v>
       </c>
       <c r="O13" t="n">
-        <v>329.2732768097663</v>
+        <v>329.2732768097662</v>
       </c>
       <c r="P13" t="n">
         <v>261.8772177322369</v>
       </c>
       <c r="Q13" t="n">
-        <v>105.3143851250202</v>
+        <v>105.3143851250201</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35665,7 +35665,7 @@
         <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037204</v>
       </c>
       <c r="R14" t="n">
         <v>59.61319854222472</v>
@@ -35729,13 +35729,13 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340057</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
         <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004595</v>
       </c>
       <c r="O15" t="n">
         <v>415.1124034525805</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>72.49856320019269</v>
+        <v>72.49856320019271</v>
       </c>
       <c r="K16" t="n">
         <v>232.967806131446</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36054,13 +36054,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004602</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36370,7 +36370,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>847.8674262666527</v>
+        <v>782.1510063936693</v>
       </c>
       <c r="P23" t="n">
         <v>398.7619862193719</v>
@@ -36379,7 +36379,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,7 +36437,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L24" t="n">
         <v>370.4021821340054</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>315.3055921237172</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
         <v>337.1912865554005</v>
@@ -36601,7 +36601,7 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>875.7546976451373</v>
       </c>
       <c r="N26" t="n">
         <v>552.3018354129115</v>
@@ -36613,7 +36613,7 @@
         <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
         <v>125.3296184152072</v>
@@ -36674,7 +36674,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
         <v>370.4021821340054</v>
@@ -36692,7 +36692,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165878</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K28" t="n">
         <v>253.0227961629121</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265652</v>
+        <v>615.0233952790471</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N29" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>520.7411701319641</v>
+        <v>888.8531821509647</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908545</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>125.3296184152073</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,25 +36908,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L30" t="n">
         <v>370.4021821340056</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q30" t="n">
         <v>159.2338966127272</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165887</v>
       </c>
       <c r="K31" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887908</v>
       </c>
       <c r="M31" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120765</v>
       </c>
       <c r="N31" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861328</v>
       </c>
       <c r="O31" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412324</v>
       </c>
       <c r="P31" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637031</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564863</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,7 +37072,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>521.1072324560741</v>
       </c>
       <c r="M32" t="n">
         <v>538.9211158302268</v>
@@ -37081,16 +37081,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>698.2880119162069</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,7 +37154,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
         <v>478.3061046004592</v>
@@ -37166,7 +37166,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37549,7 +37549,7 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302273</v>
       </c>
       <c r="N38" t="n">
         <v>552.3018354129115</v>
@@ -37622,7 +37622,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
         <v>370.4021821340054</v>
@@ -37792,10 +37792,10 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882196</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193733</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
         <v>250.7943048037195</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597691</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
         <v>370.4021821340054</v>
@@ -38023,7 +38023,7 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302273</v>
       </c>
       <c r="N44" t="n">
         <v>552.3018354129115</v>
@@ -38102,7 +38102,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
         <v>478.3061046004592</v>
